--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Plxnb2.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H2">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I2">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J2">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N2">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O2">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P2">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q2">
-        <v>7.706927580377751</v>
+        <v>9.75018573947775</v>
       </c>
       <c r="R2">
-        <v>7.706927580377751</v>
+        <v>39.000742957911</v>
       </c>
       <c r="S2">
-        <v>0.0003230440959585066</v>
+        <v>0.0003799684808707059</v>
       </c>
       <c r="T2">
-        <v>0.0003230440959585066</v>
+        <v>0.000182264185149383</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H3">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I3">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J3">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N3">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O3">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P3">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q3">
-        <v>16.72854094820921</v>
+        <v>19.866340751831</v>
       </c>
       <c r="R3">
-        <v>16.72854094820921</v>
+        <v>119.198044510986</v>
       </c>
       <c r="S3">
-        <v>0.0007011946500026966</v>
+        <v>0.0007741989247824674</v>
       </c>
       <c r="T3">
-        <v>0.0007011946500026966</v>
+        <v>0.0005570543740061724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H4">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I4">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J4">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N4">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O4">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P4">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q4">
-        <v>34.95472281455783</v>
+        <v>40.51174260703566</v>
       </c>
       <c r="R4">
-        <v>34.95472281455783</v>
+        <v>243.070455642214</v>
       </c>
       <c r="S4">
-        <v>0.001465164517681319</v>
+        <v>0.001578758159805569</v>
       </c>
       <c r="T4">
-        <v>0.001465164517681319</v>
+        <v>0.001135953706813445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H5">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I5">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J5">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N5">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O5">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P5">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q5">
-        <v>40.49386283015567</v>
+        <v>46.4666072113195</v>
       </c>
       <c r="R5">
-        <v>40.49386283015567</v>
+        <v>278.799643267917</v>
       </c>
       <c r="S5">
-        <v>0.001697343483950869</v>
+        <v>0.001810821519205906</v>
       </c>
       <c r="T5">
-        <v>0.001697343483950869</v>
+        <v>0.00130292876356239</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H6">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I6">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J6">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N6">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O6">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P6">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q6">
-        <v>5.014484572457926</v>
+        <v>5.809272204155167</v>
       </c>
       <c r="R6">
-        <v>5.014484572457926</v>
+        <v>34.855633224931</v>
       </c>
       <c r="S6">
-        <v>0.0002101874733495486</v>
+        <v>0.0002263895676817627</v>
       </c>
       <c r="T6">
-        <v>0.0002101874733495486</v>
+        <v>0.0001628926298779435</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H7">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I7">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J7">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N7">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O7">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P7">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q7">
-        <v>14.83578917627765</v>
+        <v>16.82508059109075</v>
       </c>
       <c r="R7">
-        <v>14.83578917627765</v>
+        <v>67.300322364363</v>
       </c>
       <c r="S7">
-        <v>0.0006218579391460565</v>
+        <v>0.0006556798489324348</v>
       </c>
       <c r="T7">
-        <v>0.0006218579391460565</v>
+        <v>0.0003145180703164852</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H8">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J8">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N8">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O8">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P8">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q8">
-        <v>9.663118359928371</v>
+        <v>14.973051539474</v>
       </c>
       <c r="R8">
-        <v>9.663118359928371</v>
+        <v>89.83830923684401</v>
       </c>
       <c r="S8">
-        <v>0.000405039920534728</v>
+        <v>0.0005835055658906306</v>
       </c>
       <c r="T8">
-        <v>0.000405039920534728</v>
+        <v>0.0004198460077009958</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H9">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J9">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N9">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O9">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P9">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q9">
-        <v>20.97461919624407</v>
+        <v>30.50811050434934</v>
       </c>
       <c r="R9">
-        <v>20.97461919624407</v>
+        <v>274.572994539144</v>
       </c>
       <c r="S9">
-        <v>0.0008791735520619094</v>
+        <v>0.001188912776875382</v>
       </c>
       <c r="T9">
-        <v>0.0008791735520619094</v>
+        <v>0.001283176147893148</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H10">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J10">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N10">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O10">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P10">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q10">
-        <v>43.82701410813115</v>
+        <v>62.21260047929512</v>
       </c>
       <c r="R10">
-        <v>43.82701410813115</v>
+        <v>559.913404313656</v>
       </c>
       <c r="S10">
-        <v>0.00183705607759558</v>
+        <v>0.002424448920949488</v>
       </c>
       <c r="T10">
-        <v>0.00183705607759558</v>
+        <v>0.002616672213182673</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H11">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J11">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N11">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O11">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P11">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q11">
-        <v>50.77211188214111</v>
+        <v>71.35729751511867</v>
       </c>
       <c r="R11">
-        <v>50.77211188214111</v>
+        <v>642.215677636068</v>
       </c>
       <c r="S11">
-        <v>0.002128167264037858</v>
+        <v>0.002780821274622296</v>
       </c>
       <c r="T11">
-        <v>0.002128167264037858</v>
+        <v>0.003001299675260506</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H12">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J12">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N12">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O12">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P12">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q12">
-        <v>6.287273032260766</v>
+        <v>8.921115396547112</v>
       </c>
       <c r="R12">
-        <v>6.287273032260766</v>
+        <v>80.290038568924</v>
       </c>
       <c r="S12">
-        <v>0.0002635377602252526</v>
+        <v>0.0003476592913685188</v>
       </c>
       <c r="T12">
-        <v>0.0002635377602252526</v>
+        <v>0.0003752235815397222</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H13">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J13">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N13">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O13">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P13">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q13">
-        <v>18.60144464550534</v>
+        <v>25.837743564842</v>
       </c>
       <c r="R13">
-        <v>18.60144464550534</v>
+        <v>155.026461389052</v>
       </c>
       <c r="S13">
-        <v>0.0007796994076250221</v>
+        <v>0.001006906784525085</v>
       </c>
       <c r="T13">
-        <v>0.0007796994076250221</v>
+        <v>0.0007244931639420572</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H14">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I14">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J14">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N14">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O14">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P14">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q14">
-        <v>505.4084740045678</v>
+        <v>631.159715896346</v>
       </c>
       <c r="R14">
-        <v>505.4084740045678</v>
+        <v>3786.958295378076</v>
       </c>
       <c r="S14">
-        <v>0.02118473566434777</v>
+        <v>0.02459653639877905</v>
       </c>
       <c r="T14">
-        <v>0.02118473566434777</v>
+        <v>0.01769778767154933</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H15">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I15">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J15">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N15">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O15">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P15">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q15">
-        <v>1097.032022784745</v>
+        <v>1286.009756107197</v>
       </c>
       <c r="R15">
-        <v>1097.032022784745</v>
+        <v>11574.08780496478</v>
       </c>
       <c r="S15">
-        <v>0.04598326821447304</v>
+        <v>0.05011629382961191</v>
       </c>
       <c r="T15">
-        <v>0.04598326821447304</v>
+        <v>0.05408978195353614</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H16">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I16">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J16">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N16">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O16">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P16">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q16">
-        <v>2292.277036823072</v>
+        <v>2622.450549920714</v>
       </c>
       <c r="R16">
-        <v>2292.277036823072</v>
+        <v>23602.05494928642</v>
       </c>
       <c r="S16">
-        <v>0.09608323879055553</v>
+        <v>0.1021979045565643</v>
       </c>
       <c r="T16">
-        <v>0.09608323879055553</v>
+        <v>0.1103007016513787</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H17">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I17">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J17">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N17">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O17">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P17">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q17">
-        <v>2655.525331734872</v>
+        <v>3007.927375928575</v>
       </c>
       <c r="R17">
-        <v>2655.525331734872</v>
+        <v>27071.34638335717</v>
       </c>
       <c r="S17">
-        <v>0.1113091788054869</v>
+        <v>0.1172200844311513</v>
       </c>
       <c r="T17">
-        <v>0.1113091788054869</v>
+        <v>0.12651392038311</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H18">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I18">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J18">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N18">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O18">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P18">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q18">
-        <v>328.8421967449171</v>
+        <v>376.0521790978217</v>
       </c>
       <c r="R18">
-        <v>328.8421967449171</v>
+        <v>3384.469611880396</v>
       </c>
       <c r="S18">
-        <v>0.01378377168496298</v>
+        <v>0.01465489776685746</v>
       </c>
       <c r="T18">
-        <v>0.01378377168496298</v>
+        <v>0.01581681653187846</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>37.7450692286778</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H19">
-        <v>37.7450692286778</v>
+        <v>126.169628</v>
       </c>
       <c r="I19">
-        <v>0.3291246817259363</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J19">
-        <v>0.3291246817259363</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N19">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O19">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P19">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q19">
-        <v>972.9082685721115</v>
+        <v>1089.139568163218</v>
       </c>
       <c r="R19">
-        <v>972.9082685721115</v>
+        <v>6534.837408979308</v>
       </c>
       <c r="S19">
-        <v>0.04078048856611014</v>
+        <v>0.04244418703692521</v>
       </c>
       <c r="T19">
-        <v>0.04078048856611014</v>
+        <v>0.0305395929692083</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H20">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I20">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J20">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N20">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O20">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P20">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q20">
-        <v>965.855663926318</v>
+        <v>1083.804301694923</v>
       </c>
       <c r="R20">
-        <v>965.855663926318</v>
+        <v>6502.825810169535</v>
       </c>
       <c r="S20">
-        <v>0.04048487111438349</v>
+        <v>0.04223626965471673</v>
       </c>
       <c r="T20">
-        <v>0.04048487111438349</v>
+        <v>0.03038999151216198</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H21">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I21">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J21">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N21">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O21">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P21">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q21">
-        <v>2096.471759406264</v>
+        <v>2208.288758909823</v>
       </c>
       <c r="R21">
-        <v>2096.471759406264</v>
+        <v>19874.59883018841</v>
       </c>
       <c r="S21">
-        <v>0.08787585158374375</v>
+        <v>0.08605786058510161</v>
       </c>
       <c r="T21">
-        <v>0.08787585158374375</v>
+        <v>0.09288098857153668</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H22">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I22">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J22">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N22">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O22">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P22">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q22">
-        <v>4380.632445200734</v>
+        <v>4503.175845039288</v>
       </c>
       <c r="R22">
-        <v>4380.632445200734</v>
+        <v>40528.58260535359</v>
       </c>
       <c r="S22">
-        <v>0.183618884857487</v>
+        <v>0.1754904912226714</v>
       </c>
       <c r="T22">
-        <v>0.183618884857487</v>
+        <v>0.1894043170356028</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H23">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I23">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J23">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N23">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O23">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P23">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q23">
-        <v>5074.814361606372</v>
+        <v>5165.102504344071</v>
       </c>
       <c r="R23">
-        <v>5074.814361606372</v>
+        <v>46485.92253909665</v>
       </c>
       <c r="S23">
-        <v>0.2127162608581334</v>
+        <v>0.201286027215951</v>
       </c>
       <c r="T23">
-        <v>0.2127162608581334</v>
+        <v>0.2172450612453566</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H24">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I24">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J24">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N24">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O24">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P24">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q24">
-        <v>628.4304965198907</v>
+        <v>645.7430014986927</v>
       </c>
       <c r="R24">
-        <v>628.4304965198907</v>
+        <v>5811.687013488236</v>
       </c>
       <c r="S24">
-        <v>0.02634133505262197</v>
+        <v>0.0251648526364884</v>
       </c>
       <c r="T24">
-        <v>0.02634133505262197</v>
+        <v>0.0271600568994243</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>72.13232617757799</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H25">
-        <v>72.13232617757799</v>
+        <v>216.653855</v>
       </c>
       <c r="I25">
-        <v>0.6289703365362832</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J25">
-        <v>0.6289703365362832</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N25">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O25">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P25">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q25">
-        <v>1859.266336069839</v>
+        <v>1870.230496959192</v>
       </c>
       <c r="R25">
-        <v>1859.266336069839</v>
+        <v>11221.38298175515</v>
       </c>
       <c r="S25">
-        <v>0.07793313306991356</v>
+        <v>0.07288360035341371</v>
       </c>
       <c r="T25">
-        <v>0.07793313306991356</v>
+        <v>0.05244146829782104</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H26">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I26">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J26">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N26">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O26">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P26">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q26">
-        <v>8.417458180353373</v>
+        <v>10.4314845668565</v>
       </c>
       <c r="R26">
-        <v>8.417458180353373</v>
+        <v>62.588907401139</v>
       </c>
       <c r="S26">
-        <v>0.000352826744481685</v>
+        <v>0.0004065189576898237</v>
       </c>
       <c r="T26">
-        <v>0.000352826744481685</v>
+        <v>0.0002924999715818188</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H27">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I27">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J27">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N27">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O27">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P27">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q27">
-        <v>18.27080796871562</v>
+        <v>21.254510682146</v>
       </c>
       <c r="R27">
-        <v>18.27080796871562</v>
+        <v>191.290596139314</v>
       </c>
       <c r="S27">
-        <v>0.000765840418393541</v>
+        <v>0.0008282964398150823</v>
       </c>
       <c r="T27">
-        <v>0.000765840418393541</v>
+        <v>0.0008939682167003332</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H28">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I28">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J28">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N28">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O28">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P28">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q28">
-        <v>38.1773299967823</v>
+        <v>43.34251972972066</v>
       </c>
       <c r="R28">
-        <v>38.1773299967823</v>
+        <v>390.082677567486</v>
       </c>
       <c r="S28">
-        <v>0.001600243537557106</v>
+        <v>0.001689074630868794</v>
       </c>
       <c r="T28">
-        <v>0.001600243537557106</v>
+        <v>0.00182299351180195</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H29">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I29">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J29">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N29">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O29">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P29">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q29">
-        <v>44.22714413479598</v>
+        <v>49.713483306937</v>
       </c>
       <c r="R29">
-        <v>44.22714413479598</v>
+        <v>447.421349762433</v>
       </c>
       <c r="S29">
-        <v>0.001853827954764751</v>
+        <v>0.001937353526963665</v>
       </c>
       <c r="T29">
-        <v>0.001853827954764751</v>
+        <v>0.002090957288195592</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H30">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I30">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J30">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N30">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O30">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P30">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q30">
-        <v>5.476788739024701</v>
+        <v>6.215197839457666</v>
       </c>
       <c r="R30">
-        <v>5.476788739024701</v>
+        <v>55.936780555119</v>
       </c>
       <c r="S30">
-        <v>0.00022956544595781</v>
+        <v>0.0002422086455038257</v>
       </c>
       <c r="T30">
-        <v>0.00022956544595781</v>
+        <v>0.000261412243832411</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>0.62863516954816</v>
+        <v>0.695089</v>
       </c>
       <c r="H31">
-        <v>0.62863516954816</v>
+        <v>2.085267</v>
       </c>
       <c r="I31">
-        <v>0.005481493459338287</v>
+        <v>0.005804947988479781</v>
       </c>
       <c r="J31">
-        <v>0.005481493459338287</v>
+        <v>0.005866573985353178</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N31">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O31">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P31">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q31">
-        <v>16.20355630197</v>
+        <v>18.0007410332145</v>
       </c>
       <c r="R31">
-        <v>16.20355630197</v>
+        <v>108.004446199287</v>
       </c>
       <c r="S31">
-        <v>0.0006791893581833939</v>
+        <v>0.0007014957876385903</v>
       </c>
       <c r="T31">
-        <v>0.0006791893581833939</v>
+        <v>0.0005047427532410738</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H32">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I32">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J32">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.3900529084358</v>
+        <v>15.0074085</v>
       </c>
       <c r="N32">
-        <v>13.3900529084358</v>
+        <v>30.014817</v>
       </c>
       <c r="O32">
-        <v>0.06436690057170613</v>
+        <v>0.07002973299615803</v>
       </c>
       <c r="P32">
-        <v>0.06436690057170613</v>
+        <v>0.04985873736734435</v>
       </c>
       <c r="Q32">
-        <v>38.56237314231917</v>
+        <v>46.88006013155325</v>
       </c>
       <c r="R32">
-        <v>38.56237314231917</v>
+        <v>187.520240526213</v>
       </c>
       <c r="S32">
-        <v>0.001616383031999959</v>
+        <v>0.001826933938211083</v>
       </c>
       <c r="T32">
-        <v>0.001616383031999959</v>
+        <v>0.0008763480192008426</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H33">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I33">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J33">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>29.0642472037446</v>
+        <v>30.578114</v>
       </c>
       <c r="N33">
-        <v>29.0642472037446</v>
+        <v>91.734342</v>
       </c>
       <c r="O33">
-        <v>0.1397138250870031</v>
+        <v>0.1426880036580654</v>
       </c>
       <c r="P33">
-        <v>0.1397138250870031</v>
+        <v>0.1523833533732405</v>
       </c>
       <c r="Q33">
-        <v>83.70290643626247</v>
+        <v>95.51974433357299</v>
       </c>
       <c r="R33">
-        <v>83.70290643626247</v>
+        <v>573.1184660014379</v>
       </c>
       <c r="S33">
-        <v>0.003508496668328177</v>
+        <v>0.003722441101878946</v>
       </c>
       <c r="T33">
-        <v>0.003508496668328177</v>
+        <v>0.00267838410956804</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H34">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I34">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J34">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>60.7305029151054</v>
+        <v>62.35535266666667</v>
       </c>
       <c r="N34">
-        <v>60.7305029151054</v>
+        <v>187.066058</v>
       </c>
       <c r="O34">
-        <v>0.2919356831176961</v>
+        <v>0.2909715357003801</v>
       </c>
       <c r="P34">
-        <v>0.2919356831176961</v>
+        <v>0.3107424395146705</v>
       </c>
       <c r="Q34">
-        <v>174.8994070858062</v>
+        <v>194.7853077056937</v>
       </c>
       <c r="R34">
-        <v>174.8994070858062</v>
+        <v>1168.711846234162</v>
       </c>
       <c r="S34">
-        <v>0.007331095336819524</v>
+        <v>0.007590858209520606</v>
       </c>
       <c r="T34">
-        <v>0.007331095336819524</v>
+        <v>0.0054618013958909</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H35">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I35">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J35">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>70.3542313208229</v>
+        <v>71.521033</v>
       </c>
       <c r="N35">
-        <v>70.3542313208229</v>
+        <v>214.563099</v>
       </c>
       <c r="O35">
-        <v>0.3381976040866316</v>
+        <v>0.3337417545873698</v>
       </c>
       <c r="P35">
-        <v>0.3381976040866316</v>
+        <v>0.3564188048111206</v>
       </c>
       <c r="Q35">
-        <v>202.6150410970663</v>
+        <v>223.4170095197185</v>
       </c>
       <c r="R35">
-        <v>202.6150410970663</v>
+        <v>1340.502057118311</v>
       </c>
       <c r="S35">
-        <v>0.008492825720257939</v>
+        <v>0.008706646619475632</v>
       </c>
       <c r="T35">
-        <v>0.008492825720257939</v>
+        <v>0.006264637455635471</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H36">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I36">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J36">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>8.712189524746471</v>
+        <v>8.941585666666667</v>
       </c>
       <c r="N36">
-        <v>8.712189524746471</v>
+        <v>26.824757</v>
       </c>
       <c r="O36">
-        <v>0.04188009119425687</v>
+        <v>0.04172451604811986</v>
       </c>
       <c r="P36">
-        <v>0.04188009119425687</v>
+        <v>0.04455960914923559</v>
       </c>
       <c r="Q36">
-        <v>25.09046869622297</v>
+        <v>27.93167612681216</v>
       </c>
       <c r="R36">
-        <v>25.09046869622297</v>
+        <v>167.590056760873</v>
       </c>
       <c r="S36">
-        <v>0.001051693777139305</v>
+        <v>0.001088508140219886</v>
       </c>
       <c r="T36">
-        <v>0.001051693777139305</v>
+        <v>0.0007832072626827589</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>2.87992686855066</v>
+        <v>3.1237945</v>
       </c>
       <c r="H37">
-        <v>2.87992686855066</v>
+        <v>6.247589</v>
       </c>
       <c r="I37">
-        <v>0.02511202213627286</v>
+        <v>0.026087975207778</v>
       </c>
       <c r="J37">
-        <v>0.02511202213627286</v>
+        <v>0.01757661877283757</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>25.7757712054458</v>
+        <v>25.8970305</v>
       </c>
       <c r="N37">
-        <v>25.7757712054458</v>
+        <v>51.794061</v>
       </c>
       <c r="O37">
-        <v>0.1239058959427061</v>
+        <v>0.1208444570099069</v>
       </c>
       <c r="P37">
-        <v>0.1239058959427061</v>
+        <v>0.0860370557843885</v>
       </c>
       <c r="Q37">
-        <v>74.2323360521778</v>
+        <v>80.89700144223224</v>
       </c>
       <c r="R37">
-        <v>74.2323360521778</v>
+        <v>323.588005768929</v>
       </c>
       <c r="S37">
-        <v>0.003111527601727958</v>
+        <v>0.003152587198471845</v>
       </c>
       <c r="T37">
-        <v>0.003111527601727958</v>
+        <v>0.001512240529859556</v>
       </c>
     </row>
   </sheetData>
